--- a/data/yield_data.xlsx
+++ b/data/yield_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개발 프로젝트\yield_prediction\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사관련\yield_prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D9C271-8C2D-44A8-B8ED-EC34209E6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E47CB-0BB2-446F-9E10-660E4092D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{98E3724B-2BCB-4B8E-B27C-9823DC213C3B}"/>
+    <workbookView xWindow="28500" yWindow="600" windowWidth="22230" windowHeight="20580" xr2:uid="{98E3724B-2BCB-4B8E-B27C-9823DC213C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>yield</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,57 @@
   <si>
     <t>field_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-61</t>
+  </si>
+  <si>
+    <t>GJ-62</t>
+  </si>
+  <si>
+    <t>GJ-63</t>
+  </si>
+  <si>
+    <t>GJ-64</t>
+  </si>
+  <si>
+    <t>GJ-65</t>
+  </si>
+  <si>
+    <t>GJ-66</t>
+  </si>
+  <si>
+    <t>GJ-67</t>
+  </si>
+  <si>
+    <t>GJ-68</t>
+  </si>
+  <si>
+    <t>GJ-69</t>
+  </si>
+  <si>
+    <t>GJ-70</t>
+  </si>
+  <si>
+    <t>GJ-71</t>
+  </si>
+  <si>
+    <t>GJ-72</t>
+  </si>
+  <si>
+    <t>GJ-73</t>
+  </si>
+  <si>
+    <t>GJ-74</t>
+  </si>
+  <si>
+    <t>GJ-75</t>
+  </si>
+  <si>
+    <t>GJ-77</t>
+  </si>
+  <si>
+    <t>GJ-78</t>
   </si>
 </sst>
 </file>
@@ -154,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +246,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,11 +379,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +422,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F625F6C2-D8FA-47B8-9997-FE4F1AD4F53A}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -977,6 +1042,142 @@
       </c>
       <c r="B34" s="12">
         <v>2868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25">
+      <c r="A36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="14">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="14">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="14">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="14">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="14">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25">
+      <c r="A48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25">
+      <c r="A49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25">
+      <c r="A50" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="A51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="14">
+        <v>3189</v>
       </c>
     </row>
   </sheetData>
